--- a/biology/Botanique/Chassalia/Chassalia.xlsx
+++ b/biology/Botanique/Chassalia/Chassalia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chassalia est un genre de plantes appartenant à la famille des Rubiaceae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,6 +552,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -563,9 +579,11 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (24 juillet 2017)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (24 juillet 2017) :
 Chassalia angustifolia (Ridl.) A.P.Davis
 Chassalia bracteata Ridl.
 Chassalia chartacea Craib
@@ -577,7 +595,7 @@
 Chassalia ridleyi (King) A.P.Davis
 Chassalia subcoriacea (Ridl.) A.P.Davis
 Chassalia tricepa (Ridl.) A.P.Davis
-Selon Catalogue of Life                                   (24 juillet 2017)[3] :
+Selon Catalogue of Life                                   (24 juillet 2017) :
 Chassalia acutiflora Bremek.
 Chassalia afzelii (Hiern) K.Schum.
 Chassalia albiflora K.Krause
@@ -692,7 +710,7 @@
 Chassalia virgata Talbot
 Chassalia zenkeri K.Schum. &amp; K.Krause
 Chassalia zimmermannii Verdc.
-Selon World Checklist of Selected Plant Families (WCSP)  (24 juillet 2017)[4] :
+Selon World Checklist of Selected Plant Families (WCSP)  (24 juillet 2017) :
 Chassalia acutiflora Bremek. (1962)
 Chassalia afzelii (Hiern) K.Schum. (1897)
 Chassalia albiflora K.Krause (1907)
@@ -833,7 +851,7 @@
 Chassalia virgata Talbot (1894)
 Chassalia zenkeri K.Schum. &amp; K.Krause (1907)
 Chassalia zimmermannii Verdc. (1975)
-Selon NCBI  (24 juillet 2017)[5] :
+Selon NCBI  (24 juillet 2017) :
 Chassalia albiflora
 Chassalia betsilensis
 Chassalia bojeri
@@ -869,7 +887,7 @@
 Chassalia violacea
 variété Chassalia violacea var. violacea
 Chassalia zimmermannii
-Selon The Plant List            (24 juillet 2017)[6] :
+Selon The Plant List            (24 juillet 2017) :
 Chassalia acutiflora Bremek.
 Chassalia afzelii (Hiern) K.Schum.
 Chassalia albiflora K.Krause
@@ -982,7 +1000,7 @@
 Chassalia virgata Talbot
 Chassalia zenkeri K.Schum. &amp; K.Krause
 Chassalia zimmermannii Verdc.
-Selon Tropicos                                           (24 juillet 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (24 juillet 2017) (Attention liste brute contenant possiblement des synonymes) :
 Chassalia acutiflora Bremek.
 Chassalia afzelii (Hiern) K. Schum.
 Chassalia albiflora K. Krause
